--- a/biology/Botanique/Mackinlayoideae/Mackinlayoideae.xlsx
+++ b/biology/Botanique/Mackinlayoideae/Mackinlayoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mackinlayoideae sont une sous-famille de plantes à fleurs de la famille des Apiaceae. Elle comprend onze genres et 115 espèces selon Catalogue of Life                                   (21 mai 2021)[1]. Mackinlaya est le genre type.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mackinlayoideae sont une sous-famille de plantes à fleurs de la famille des Apiaceae. Elle comprend onze genres et 115 espèces selon Catalogue of Life                                   (21 mai 2021). Mackinlaya est le genre type.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-famille est décrite par Gregory M. Plunkett et Porter Prescott Lowry en 2004, qui la classent dans la famille des Apiaceae sous le nom scientifique Mackinlayoideae, lors d'une révision phylogénétique de l'ordre des Apiales[2].
-Selon Catalogue of Life                                   (21 mai 2021)[1], les taxons suivants sont synonymes de Mackinlayoideae :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille est décrite par Gregory M. Plunkett et Porter Prescott Lowry en 2004, qui la classent dans la famille des Apiaceae sous le nom scientifique Mackinlayoideae, lors d'une révision phylogénétique de l'ordre des Apiales.
+Selon Catalogue of Life                                   (21 mai 2021), les taxons suivants sont synonymes de Mackinlayoideae :
 tribu des Mackinlayeae Hook.fil., 1873
 famille des Mackinlayaceae Doweld
 sous-tribu des Xanthosiinae Tausch, 1834
@@ -548,9 +562,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 mai 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 mai 2021) :
 Actinotus Labill.
 Apiopetalum Baill.
 Brachyscias J. M. Hart &amp; Henwood
@@ -562,7 +578,7 @@
 Pentapeltis Bunge
 Schoenolaena Bunge
 Xanthosia Rudge
-Selon GRIN            (21 mai 2021)[3] :
+Selon GRIN            (21 mai 2021) :
 Actinotus Labill.
 Anomopanax Harms, synonyme de Mackinlaya F. Muell.
 Apiopetalum Baill.
